--- a/GGIP + PLC Collection/GGIP.xlsx
+++ b/GGIP + PLC Collection/GGIP.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC88"/>
+  <dimension ref="A1:BC86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1416,20 +1416,25 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t>GGIP Gorilla #158 (#1)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>GGIP Gorilla #119 (#1)</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>GGIP Gorilla #68 (#1)</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>GGIP Gorilla #5 (#1)</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>GGIP Gorilla #2 (#1)</t>
         </is>
@@ -1688,7 +1693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zanastasia</t>
+          <t>tzunoi</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1696,104 +1701,109 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #406 (#1)</t>
+          <t>GGIP Gorilla #497 (#1)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #375 (#1)</t>
+          <t>GGIP Gorilla #442 (#1)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #353 (#1)</t>
+          <t>GGIP Gorilla #348 (#1)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #352 (#1)</t>
+          <t>GGIP Gorilla #160 (#1)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #249 (#1)</t>
+          <t>GGIP Gorilla #143 (#1)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #172 (#1)</t>
+          <t>GGIP Gorilla #124 (#1)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #101 (#1)</t>
+          <t>GGIP Gorilla #120 (#1)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #12 (#1)</t>
+          <t>GGIP Gorilla #48 (#1)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #4 (#1)</t>
+          <t>GGIP Gorilla #33 (#1)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kenns</t>
+          <t>zanastasia</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #475 (#1)</t>
+          <t>GGIP Gorilla #406 (#1)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #326 (#1)</t>
+          <t>GGIP Gorilla #375 (#1)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #301 (#1)</t>
+          <t>GGIP Gorilla #353 (#1)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #232 (#1)</t>
+          <t>GGIP Gorilla #352 (#1)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #218 (#1)</t>
+          <t>GGIP Gorilla #249 (#1)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #92 (#1)</t>
+          <t>GGIP Gorilla #172 (#1)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #84 (#1)</t>
+          <t>GGIP Gorilla #101 (#1)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #21 (#1)</t>
+          <t>GGIP Gorilla #12 (#1)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>GGIP Gorilla #4 (#1)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pinwheel</t>
+          <t>kenns</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1801,49 +1811,49 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #448 (#1)</t>
+          <t>GGIP Gorilla #475 (#1)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #436 (#1)</t>
+          <t>GGIP Gorilla #326 (#1)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #430 (#1)</t>
+          <t>GGIP Gorilla #301 (#1)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #410 (#1)</t>
+          <t>GGIP Gorilla #232 (#1)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #356 (#1)</t>
+          <t>GGIP Gorilla #218 (#1)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #275 (#1)</t>
+          <t>GGIP Gorilla #92 (#1)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #238 (#1)</t>
+          <t>GGIP Gorilla #84 (#1)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #109 (#1)</t>
+          <t>GGIP Gorilla #21 (#1)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tzunoi</t>
+          <t>pinwheel</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1851,42 +1861,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #497 (#1)</t>
+          <t>GGIP Gorilla #448 (#1)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #442 (#1)</t>
+          <t>GGIP Gorilla #436 (#1)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #348 (#1)</t>
+          <t>GGIP Gorilla #430 (#1)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #160 (#1)</t>
+          <t>GGIP Gorilla #410 (#1)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #124 (#1)</t>
+          <t>GGIP Gorilla #356 (#1)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #120 (#1)</t>
+          <t>GGIP Gorilla #275 (#1)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #48 (#1)</t>
+          <t>GGIP Gorilla #238 (#1)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #33 (#1)</t>
+          <t>GGIP Gorilla #109 (#1)</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2158,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>moshi</t>
+          <t>aaronniew</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2156,29 +2166,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #399 (#1)</t>
+          <t>GGIP Gorilla #205 (#1)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #345 (#1)</t>
+          <t>GGIP Gorilla #202 (#1)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #303 (#1)</t>
+          <t>GGIP Gorilla #191 (#1)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #67 (#1)</t>
+          <t>GGIP Gorilla #176 (#1)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nrblanscet</t>
+          <t>moshi</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2186,29 +2196,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #490 (#1)</t>
+          <t>GGIP Gorilla #399 (#1)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #397 (#1)</t>
+          <t>GGIP Gorilla #345 (#1)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #394 (#1)</t>
+          <t>GGIP Gorilla #303 (#1)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #127 (#1)</t>
+          <t>GGIP Gorilla #67 (#1)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pudawee</t>
+          <t>nrblanscet</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2216,29 +2226,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #446 (#1)</t>
+          <t>GGIP Gorilla #490 (#1)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #347 (#1)</t>
+          <t>GGIP Gorilla #397 (#1)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #255 (#1)</t>
+          <t>GGIP Gorilla #394 (#1)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #138 (#1)</t>
+          <t>GGIP Gorilla #127 (#1)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>rmwill22</t>
+          <t>pudawee</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2246,29 +2256,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #462 (#1)</t>
+          <t>GGIP Gorilla #446 (#1)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #423 (#1)</t>
+          <t>GGIP Gorilla #347 (#1)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #88 (#1)</t>
+          <t>GGIP Gorilla #255 (#1)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #54 (#1)</t>
+          <t>GGIP Gorilla #138 (#1)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>shrijan</t>
+          <t>rmwill22</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2276,47 +2286,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #405 (#1)</t>
+          <t>GGIP Gorilla #462 (#1)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #385 (#1)</t>
+          <t>GGIP Gorilla #423 (#1)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #246 (#1)</t>
+          <t>GGIP Gorilla #88 (#1)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #35 (#1)</t>
+          <t>GGIP Gorilla #54 (#1)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aaronniew</t>
+          <t>shrijan</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #205 (#1)</t>
+          <t>GGIP Gorilla #405 (#1)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #202 (#1)</t>
+          <t>GGIP Gorilla #385 (#1)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #191 (#1)</t>
+          <t>GGIP Gorilla #246 (#1)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>GGIP Gorilla #35 (#1)</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2783,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nnjarkaz</t>
+          <t>olboyphotos</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2776,19 +2791,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #176 (#1)</t>
+          <t>GGIP Gorilla #463 (#1)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #9 (#1)</t>
+          <t>GGIP Gorilla #15 (#1)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>olboyphotos</t>
+          <t>onac</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2796,19 +2811,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #463 (#1)</t>
+          <t>GGIP Gorilla #323 (#1)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #15 (#1)</t>
+          <t>GGIP Gorilla #182 (#1)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>onac</t>
+          <t>phijo</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2816,19 +2831,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #323 (#1)</t>
+          <t>GGIP Gorilla #355 (#1)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #182 (#1)</t>
+          <t>GGIP Gorilla #112 (#1)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>phijo</t>
+          <t>phkunz</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2836,19 +2851,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #355 (#1)</t>
+          <t>GGIP Gorilla #432 (#1)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #112 (#1)</t>
+          <t>GGIP Gorilla #91 (#1)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>phkunz</t>
+          <t>roald</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2856,19 +2871,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #432 (#1)</t>
+          <t>GGIP Gorilla #461 (#1)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #91 (#1)</t>
+          <t>GGIP Gorilla #329 (#1)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>roald</t>
+          <t>tljb</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2876,19 +2891,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #461 (#1)</t>
+          <t>GGIP Gorilla #369 (#1)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #329 (#1)</t>
+          <t>GGIP Gorilla #244 (#1)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tljb</t>
+          <t>tobinalan</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2896,19 +2911,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #369 (#1)</t>
+          <t>GGIP Gorilla #374 (#1)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #244 (#1)</t>
+          <t>GGIP Gorilla #28 (#1)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tobinalan</t>
+          <t>windryder</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2916,39 +2931,34 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #374 (#1)</t>
+          <t>GGIP Gorilla #320 (#1)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #28 (#1)</t>
+          <t>GGIP Gorilla #24 (#1)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>windryder</t>
+          <t>admiral</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #320 (#1)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GGIP Gorilla #24 (#1)</t>
+          <t>GGIP Gorilla #279 (#1)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>admiral</t>
+          <t>almonds</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2956,14 +2966,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #279 (#1)</t>
+          <t>GGIP Gorilla #225 (#1)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>almonds</t>
+          <t>anneliese</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2971,14 +2981,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #225 (#1)</t>
+          <t>GGIP Gorilla #433 (#1)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>anneliese</t>
+          <t>boby</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2986,14 +2996,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #433 (#1)</t>
+          <t>GGIP Gorilla #177 (#1)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>atomicmarket</t>
+          <t>brambi14la</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3001,14 +3011,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #143 (#1)</t>
+          <t>GGIP Gorilla #498 (#1)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>boby</t>
+          <t>cubsker1</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3016,14 +3026,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #177 (#1)</t>
+          <t>GGIP Gorilla #291 (#1)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>brambi14la</t>
+          <t>dragontm</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -3031,14 +3041,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #498 (#1)</t>
+          <t>GGIP Gorilla #470 (#1)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cubsker1</t>
+          <t>ffire</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3046,14 +3056,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #291 (#1)</t>
+          <t>GGIP Gorilla #322 (#1)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>dragontm</t>
+          <t>funky</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3061,14 +3071,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #470 (#1)</t>
+          <t>GGIP Gorilla #259 (#1)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ffire</t>
+          <t>hhi11</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3076,14 +3086,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #322 (#1)</t>
+          <t>GGIP Gorilla #440 (#1)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>funky</t>
+          <t>icewater</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3091,14 +3101,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #259 (#1)</t>
+          <t>GGIP Gorilla #258 (#1)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hhi11</t>
+          <t>jvargo</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3106,14 +3116,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #440 (#1)</t>
+          <t>GGIP Gorilla #208 (#1)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>icewater</t>
+          <t>kevcollector</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3121,14 +3131,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #258 (#1)</t>
+          <t>GGIP Gorilla #289 (#1)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>jayang</t>
+          <t>lounge.xpr</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3136,14 +3146,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #478 (#1)</t>
+          <t>GGIP Gorilla #121 (#1)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jvargo</t>
+          <t>magicsparks</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3151,14 +3161,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #208 (#1)</t>
+          <t>GGIP Gorilla #358 (#1)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kevcollector</t>
+          <t>mikcoff</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3166,14 +3176,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #289 (#1)</t>
+          <t>GGIP Gorilla #236 (#1)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lounge.xpr</t>
+          <t>moray</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3181,14 +3191,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #121 (#1)</t>
+          <t>GGIP Gorilla #116 (#1)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>magicsparks</t>
+          <t>munk5</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3196,14 +3206,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #358 (#1)</t>
+          <t>GGIP Gorilla #274 (#1)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mikcoff</t>
+          <t>nnjarkaz</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3211,14 +3221,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #236 (#1)</t>
+          <t>GGIP Gorilla #9 (#1)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>moray</t>
+          <t>phantom1</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3226,14 +3236,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #116 (#1)</t>
+          <t>GGIP Gorilla #98 (#1)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>munk5</t>
+          <t>protonroad</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3241,14 +3251,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #274 (#1)</t>
+          <t>GGIP Gorilla #81 (#1)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>mursescott</t>
+          <t>protonwolfcl</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3256,14 +3266,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #158 (#1)</t>
+          <t>GGIP Gorilla #206 (#1)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>phantom1</t>
+          <t>sassysaz</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3271,14 +3281,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #98 (#1)</t>
+          <t>GGIP Gorilla #25 (#1)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>protonroad</t>
+          <t>scatpackjim</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3286,14 +3296,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #81 (#1)</t>
+          <t>GGIP Gorilla #311 (#1)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>protonwolfcl</t>
+          <t>sieb21</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3301,14 +3311,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #206 (#1)</t>
+          <t>GGIP Gorilla #477 (#1)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sassysaz</t>
+          <t>stonebreaker</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3316,14 +3326,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #25 (#1)</t>
+          <t>GGIP Gorilla #144 (#1)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>scatpackjim</t>
+          <t>supriy</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3331,14 +3341,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #311 (#1)</t>
+          <t>GGIP Gorilla #296 (#1)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sieb21</t>
+          <t>uchemekagu</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3346,14 +3356,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #477 (#1)</t>
+          <t>GGIP Gorilla #304 (#1)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>stonebreaker</t>
+          <t>whetstone</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3361,14 +3371,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #144 (#1)</t>
+          <t>GGIP Gorilla #391 (#1)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>supriy</t>
+          <t>xavierxpr</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3376,50 +3386,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GGIP Gorilla #296 (#1)</t>
+          <t>GGIP Gorilla #478 (#1)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>uchemekagu</t>
+          <t>yager</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
-        <is>
-          <t>GGIP Gorilla #304 (#1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>whetstone</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>GGIP Gorilla #391 (#1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>yager</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>GGIP Gorilla #253 (#1)</t>
         </is>
